--- a/template/Grade One_Report_Card_Template.xlsx
+++ b/template/Grade One_Report_Card_Template.xlsx
@@ -2765,7 +2765,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -4060,7 +4060,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -5355,7 +5355,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -6650,7 +6650,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -7945,7 +7945,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -9240,7 +9240,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -10535,7 +10535,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -11830,7 +11830,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -13125,7 +13125,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -14420,7 +14420,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -15715,7 +15715,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -17010,7 +17010,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -18305,7 +18305,7 @@
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="30" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>

--- a/template/Grade One_Report_Card_Template.xlsx
+++ b/template/Grade One_Report_Card_Template.xlsx
@@ -223,7 +223,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -343,7 +343,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -463,7 +463,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -583,7 +583,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -703,7 +703,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -823,7 +823,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -943,7 +943,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -1063,7 +1063,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -1183,7 +1183,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -1303,7 +1303,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -1423,7 +1423,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -1543,7 +1543,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -1663,7 +1663,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="1"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
